--- a/data/trans_dic/P16A99-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A99-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
